--- a/CaseLarge.xlsx
+++ b/CaseLarge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/caf4ccef320e202d/★★★科研/2023_10 iges_sim/cases/case4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruizhiyu/Downloads/Quantify_G2P_Fault_Propagation-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="11_AD4DA82427541F7ACA7EB8A9580A294E6AE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E356536E-0E95-413D-8F97-A5AA7E1917DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546DF5D1-406F-7743-8FA1-3DEE5C8B08D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8240" yWindow="-19620" windowWidth="20800" windowHeight="17960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setting" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="bus" sheetId="2" r:id="rId6"/>
     <sheet name="branch" sheetId="3" r:id="rId7"/>
     <sheet name="gen" sheetId="4" r:id="rId8"/>
-    <sheet name="machine" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>bus_i</t>
   </si>
@@ -237,46 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tqp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tdp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xqp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xdp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>qmax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,13 +308,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -399,7 +358,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,10 +371,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,7 +642,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -713,14 +668,14 @@
       <selection activeCell="B89" sqref="B89:C89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="7" max="7" width="5.25" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -746,7 +701,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -773,7 +728,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -799,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -825,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -851,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -877,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -903,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -929,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -955,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -981,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1007,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1033,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1059,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1085,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1111,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1137,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1163,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1189,7 +1144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1215,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1241,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1267,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1293,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1319,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1345,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1371,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1397,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1423,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1449,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1475,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1501,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1527,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1553,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1579,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1605,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -1631,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1657,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -1683,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -1709,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -1735,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -1761,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -1787,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -1813,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -1839,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -1865,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -1891,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -1917,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -1943,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -1969,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -1995,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -2021,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -2047,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -2073,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -2099,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -2125,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -2151,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -2177,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -2203,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -2229,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -2255,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -2281,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -2307,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -2333,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -2359,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -2385,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -2411,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -2437,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -2463,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -2489,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -2515,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -2541,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -2567,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -2593,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -2619,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -2645,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -2671,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -2697,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -2723,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -2749,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -2775,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -2801,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -2827,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -2853,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -2879,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -2905,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -2931,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -2957,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -2983,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -3009,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -3035,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -3061,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -3087,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -3113,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -3139,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -3165,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -3191,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -3217,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -3243,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -3269,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -3295,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -3321,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -3347,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -3373,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -3399,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -3425,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -3451,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -3477,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -3503,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -3529,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -3555,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -3581,7 +3536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -3607,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -3633,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -3659,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -3685,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -3711,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -3737,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -3763,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -3789,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -3815,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -3841,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -3867,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -3893,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -3919,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -3945,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -3971,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -3997,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -4023,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -4049,7 +4004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -4075,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -4101,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -4127,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -4153,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -4179,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -4215,13 +4170,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33042EFE-09DA-4AE0-B86C-4F7564CCE190}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
@@ -4235,7 +4190,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -4250,7 +4205,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4264,7 +4219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4278,7 +4233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4292,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4306,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4320,7 +4275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4334,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4348,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4362,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4376,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4390,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4404,7 +4359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4418,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4432,7 +4387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4446,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -4460,7 +4415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -4474,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -4488,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -4502,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -4516,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -4530,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -4544,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -4558,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -4572,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -4586,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -4600,7 +4555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -4614,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -4628,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -4642,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -4656,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -4670,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4684,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4698,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4712,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4726,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4740,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4754,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4768,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4782,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4796,7 +4751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4810,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4824,7 +4779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4838,7 +4793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4852,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -4866,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -4880,7 +4835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -4894,7 +4849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -4908,7 +4863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -4922,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -4936,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -4950,7 +4905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -4964,7 +4919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -4978,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -4992,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -5006,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -5020,7 +4975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -5034,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -5048,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -5062,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -5076,7 +5031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -5090,7 +5045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -5104,7 +5059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -5118,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -5132,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -5146,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -5160,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -5174,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -5188,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -5202,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -5216,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -5230,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -5244,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -5258,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -5272,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -5286,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -5300,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -5314,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -5328,7 +5283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -5342,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -5356,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -5370,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -5384,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -5398,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -5412,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -5426,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -5440,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -5454,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -5468,7 +5423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -5482,7 +5437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -5496,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -5510,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -5524,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -5538,7 +5493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -5552,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -5566,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -5580,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -5594,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -5608,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -5622,7 +5577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -5636,7 +5591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -5650,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -5664,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -5678,7 +5633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -5692,7 +5647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -5706,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -5720,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -5734,7 +5689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -5748,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -5762,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -5776,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>110</v>
       </c>
@@ -5790,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>111</v>
       </c>
@@ -5804,7 +5759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>112</v>
       </c>
@@ -5818,7 +5773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>113</v>
       </c>
@@ -5832,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>114</v>
       </c>
@@ -5846,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>115</v>
       </c>
@@ -5860,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>116</v>
       </c>
@@ -5874,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>117</v>
       </c>
@@ -5888,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>118</v>
       </c>
@@ -5902,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>119</v>
       </c>
@@ -5916,7 +5871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>120</v>
       </c>
@@ -5930,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>121</v>
       </c>
@@ -5944,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>122</v>
       </c>
@@ -5958,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>123</v>
       </c>
@@ -5972,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>124</v>
       </c>
@@ -5986,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>125</v>
       </c>
@@ -6000,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>126</v>
       </c>
@@ -6014,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>127</v>
       </c>
@@ -6028,7 +5983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>128</v>
       </c>
@@ -6042,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>129</v>
       </c>
@@ -6056,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>130</v>
       </c>
@@ -6070,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>131</v>
       </c>
@@ -6084,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>132</v>
       </c>
@@ -6098,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>133</v>
       </c>
@@ -6126,7 +6081,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -6139,55 +6094,55 @@
         <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
         <v>59</v>
       </c>
       <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>77</v>
-      </c>
-      <c r="K1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -6329,7 +6284,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -6348,7 +6303,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6365,7 +6320,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6392,11 +6347,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A00D949-E05B-46DD-9E90-B32EE56C36EC}">
   <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -6439,7 +6394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6480,7 +6435,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6522,7 +6477,7 @@
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6563,7 +6518,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6604,7 +6559,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6645,7 +6600,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11293,7 +11248,7 @@
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -11336,7 +11291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11377,7 +11332,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -11418,7 +11373,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11459,7 +11414,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -11501,7 +11456,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -11542,7 +11497,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -11583,7 +11538,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -11624,7 +11579,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -11665,7 +11620,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -11706,7 +11661,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -11747,7 +11702,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -11788,7 +11743,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -11829,7 +11784,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -11870,7 +11825,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -11911,7 +11866,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>6</v>
       </c>
@@ -11952,7 +11907,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -11993,7 +11948,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>11</v>
       </c>
@@ -12034,7 +11989,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -12075,7 +12030,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -12116,7 +12071,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>11</v>
       </c>
@@ -12157,7 +12112,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>14</v>
       </c>
@@ -12198,7 +12153,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>15</v>
       </c>
@@ -12239,7 +12194,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>16</v>
       </c>
@@ -12280,7 +12235,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>17</v>
       </c>
@@ -12321,7 +12276,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>18</v>
       </c>
@@ -12362,7 +12317,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>14</v>
       </c>
@@ -12403,7 +12358,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>19</v>
       </c>
@@ -12444,7 +12399,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>20</v>
       </c>
@@ -12485,7 +12440,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>21</v>
       </c>
@@ -12526,7 +12481,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>22</v>
       </c>
@@ -12567,7 +12522,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>22</v>
       </c>
@@ -12608,7 +12563,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -12649,7 +12604,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>24</v>
       </c>
@@ -12690,7 +12645,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>26</v>
       </c>
@@ -12731,7 +12686,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>27</v>
       </c>
@@ -12772,7 +12727,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -12813,7 +12768,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>7</v>
       </c>
@@ -12854,7 +12809,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>25</v>
       </c>
@@ -12895,7 +12850,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>16</v>
       </c>
@@ -12936,7 +12891,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>28</v>
       </c>
@@ -12977,7 +12932,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>22</v>
       </c>
@@ -13018,7 +12973,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>30</v>
       </c>
@@ -13059,7 +13014,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>26</v>
       </c>
@@ -13100,7 +13055,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>14</v>
       </c>
@@ -13141,7 +13096,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>18</v>
       </c>
@@ -13182,7 +13137,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>34</v>
       </c>
@@ -13223,7 +13178,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>34</v>
       </c>
@@ -13264,7 +13219,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>32</v>
       </c>
@@ -13305,7 +13260,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>33</v>
       </c>
@@ -13346,7 +13301,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>33</v>
       </c>
@@ -13387,7 +13342,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>37</v>
       </c>
@@ -13428,7 +13383,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>36</v>
       </c>
@@ -13469,7 +13424,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>36</v>
       </c>
@@ -13510,7 +13465,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>29</v>
       </c>
@@ -13551,7 +13506,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>38</v>
       </c>
@@ -13592,7 +13547,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>39</v>
       </c>
@@ -13633,7 +13588,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>39</v>
       </c>
@@ -13674,7 +13629,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>40</v>
       </c>
@@ -13715,7 +13670,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>42</v>
       </c>
@@ -13756,7 +13711,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>33</v>
       </c>
@@ -13797,7 +13752,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43</v>
       </c>
@@ -13838,7 +13793,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44</v>
       </c>
@@ -13879,7 +13834,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>45</v>
       </c>
@@ -13920,7 +13875,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>45</v>
       </c>
@@ -13961,7 +13916,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>46</v>
       </c>
@@ -14002,7 +13957,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>41</v>
       </c>
@@ -14043,7 +13998,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>41</v>
       </c>
@@ -14084,7 +14039,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44</v>
       </c>
@@ -14125,7 +14080,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>47</v>
       </c>
@@ -14166,7 +14121,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>48</v>
       </c>
@@ -14207,7 +14162,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>48</v>
       </c>
@@ -14248,7 +14203,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>50</v>
       </c>
@@ -14289,7 +14244,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>51</v>
       </c>
@@ -14330,7 +14285,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>52</v>
       </c>
@@ -14371,7 +14326,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>48</v>
       </c>
@@ -14412,7 +14367,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>48</v>
       </c>
@@ -14453,7 +14408,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>53</v>
       </c>
@@ -14494,7 +14449,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>53</v>
       </c>
@@ -14535,7 +14490,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>54</v>
       </c>
@@ -14576,7 +14531,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>55</v>
       </c>
@@ -14617,7 +14572,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>49</v>
       </c>
@@ -14658,7 +14613,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>55</v>
       </c>
@@ -14699,7 +14654,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>50</v>
       </c>
@@ -14740,7 +14695,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>53</v>
       </c>
@@ -14781,7 +14736,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>55</v>
       </c>
@@ -14822,7 +14777,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>55</v>
       </c>
@@ -14863,7 +14818,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>54</v>
       </c>
@@ -14904,7 +14859,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>58</v>
       </c>
@@ -14945,7 +14900,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>58</v>
       </c>
@@ -14986,7 +14941,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>59</v>
       </c>
@@ -15027,7 +14982,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>59</v>
       </c>
@@ -15068,7 +15023,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>60</v>
       </c>
@@ -15109,7 +15064,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>62</v>
       </c>
@@ -15150,7 +15105,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>62</v>
       </c>
@@ -15191,7 +15146,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>63</v>
       </c>
@@ -15232,7 +15187,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>37</v>
       </c>
@@ -15273,7 +15228,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>63</v>
       </c>
@@ -15314,7 +15269,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>48</v>
       </c>
@@ -15355,7 +15310,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>48</v>
       </c>
@@ -15396,7 +15351,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>61</v>
       </c>
@@ -15437,7 +15392,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>61</v>
       </c>
@@ -15478,7 +15433,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>64</v>
       </c>
@@ -15519,7 +15474,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>65</v>
       </c>
@@ -15560,7 +15515,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>64</v>
       </c>
@@ -15601,7 +15556,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>46</v>
       </c>
@@ -15642,7 +15597,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>48</v>
       </c>
@@ -15683,7 +15638,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>67</v>
       </c>
@@ -15724,7 +15679,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>68</v>
       </c>
@@ -15765,7 +15720,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>23</v>
       </c>
@@ -15806,7 +15761,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>69</v>
       </c>
@@ -15847,7 +15802,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>23</v>
       </c>
@@ -15888,7 +15843,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>70</v>
       </c>
@@ -15929,7 +15884,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>70</v>
       </c>
@@ -15970,7 +15925,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>69</v>
       </c>
@@ -16011,7 +15966,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>69</v>
       </c>
@@ -16052,7 +16007,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>68</v>
       </c>
@@ -16093,7 +16048,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>73</v>
       </c>
@@ -16134,7 +16089,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>75</v>
       </c>
@@ -16175,7 +16130,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>68</v>
       </c>
@@ -16216,7 +16171,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>74</v>
       </c>
@@ -16257,7 +16212,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>76</v>
       </c>
@@ -16298,7 +16253,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>77</v>
       </c>
@@ -16339,7 +16294,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>76</v>
       </c>
@@ -16380,7 +16335,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>76</v>
       </c>
@@ -16421,7 +16376,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>78</v>
       </c>
@@ -16462,7 +16417,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>67</v>
       </c>
@@ -16503,7 +16458,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>80</v>
       </c>
@@ -16544,7 +16499,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>76</v>
       </c>
@@ -16585,7 +16540,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>81</v>
       </c>
@@ -16626,7 +16581,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>82</v>
       </c>
@@ -16667,7 +16622,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>82</v>
       </c>
@@ -16708,7 +16663,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>83</v>
       </c>
@@ -16749,7 +16704,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>84</v>
       </c>
@@ -16790,7 +16745,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>85</v>
       </c>
@@ -16831,7 +16786,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>84</v>
       </c>
@@ -16872,7 +16827,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>84</v>
       </c>
@@ -16913,7 +16868,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>87</v>
       </c>
@@ -16954,7 +16909,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>88</v>
       </c>
@@ -16995,7 +16950,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>88</v>
       </c>
@@ -17036,7 +16991,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>89</v>
       </c>
@@ -17077,7 +17032,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>88</v>
       </c>
@@ -17118,7 +17073,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>88</v>
       </c>
@@ -17159,7 +17114,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>90</v>
       </c>
@@ -17200,7 +17155,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>91</v>
       </c>
@@ -17241,7 +17196,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>91</v>
       </c>
@@ -17282,7 +17237,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>92</v>
       </c>
@@ -17323,7 +17278,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>93</v>
       </c>
@@ -17364,7 +17319,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>79</v>
       </c>
@@ -17405,7 +17360,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>81</v>
       </c>
@@ -17446,7 +17401,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>93</v>
       </c>
@@ -17487,7 +17442,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>79</v>
       </c>
@@ -17528,7 +17483,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>79</v>
       </c>
@@ -17569,7 +17524,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>79</v>
       </c>
@@ -17610,7 +17565,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>91</v>
       </c>
@@ -17651,7 +17606,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>93</v>
       </c>
@@ -17692,7 +17647,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>94</v>
       </c>
@@ -17733,7 +17688,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>95</v>
       </c>
@@ -17774,7 +17729,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>97</v>
       </c>
@@ -17815,7 +17770,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>98</v>
       </c>
@@ -17856,7 +17811,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>99</v>
       </c>
@@ -17897,7 +17852,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>91</v>
       </c>
@@ -17938,7 +17893,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>100</v>
       </c>
@@ -17979,7 +17934,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>99</v>
       </c>
@@ -18020,7 +17975,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>99</v>
       </c>
@@ -18061,7 +18016,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>102</v>
       </c>
@@ -18102,7 +18057,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>102</v>
       </c>
@@ -18143,7 +18098,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>99</v>
       </c>
@@ -18184,7 +18139,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>103</v>
       </c>
@@ -18225,7 +18180,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>104</v>
       </c>
@@ -18266,7 +18221,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>104</v>
       </c>
@@ -18307,7 +18262,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>104</v>
       </c>
@@ -18348,7 +18303,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>105</v>
       </c>
@@ -18389,7 +18344,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>107</v>
       </c>
@@ -18430,7 +18385,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>102</v>
       </c>
@@ -18471,7 +18426,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>108</v>
       </c>
@@ -18512,7 +18467,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>109</v>
       </c>
@@ -18553,7 +18508,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>109</v>
       </c>
@@ -18594,7 +18549,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>16</v>
       </c>
@@ -18635,7 +18590,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>31</v>
       </c>
@@ -18676,7 +18631,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>31</v>
       </c>
@@ -18717,7 +18672,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>26</v>
       </c>
@@ -18758,7 +18713,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>113</v>
       </c>
@@ -18799,7 +18754,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>67</v>
       </c>
@@ -18840,7 +18795,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>11</v>
       </c>
@@ -18881,7 +18836,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>74</v>
       </c>
@@ -18922,7 +18877,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>75</v>
       </c>
@@ -18973,11 +18928,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C8981D-6843-4D8E-B918-1B1BBDA286AE}">
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -19044,7 +18999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -19112,7 +19067,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -19180,7 +19135,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -19248,7 +19203,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -19313,7 +19268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -19378,7 +19333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>11</v>
       </c>
@@ -19443,7 +19398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>14</v>
       </c>
@@ -19508,7 +19463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>17</v>
       </c>
@@ -19573,7 +19528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>18</v>
       </c>
@@ -19638,7 +19593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>23</v>
       </c>
@@ -19703,7 +19658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>24</v>
       </c>
@@ -19768,7 +19723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>25</v>
       </c>
@@ -19833,7 +19788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>26</v>
       </c>
@@ -19898,7 +19853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>30</v>
       </c>
@@ -19963,7 +19918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>31</v>
       </c>
@@ -20028,7 +19983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>33</v>
       </c>
@@ -20093,7 +20048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>35</v>
       </c>
@@ -20158,7 +20113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>39</v>
       </c>
@@ -20223,7 +20178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>41</v>
       </c>
@@ -20288,7 +20243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45</v>
       </c>
@@ -20353,7 +20308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>48</v>
       </c>
@@ -20418,7 +20373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>53</v>
       </c>
@@ -20483,7 +20438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>54</v>
       </c>
@@ -20548,7 +20503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>55</v>
       </c>
@@ -20613,7 +20568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>58</v>
       </c>
@@ -20678,7 +20633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>60</v>
       </c>
@@ -20743,7 +20698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>61</v>
       </c>
@@ -20808,7 +20763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>64</v>
       </c>
@@ -20873,7 +20828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>65</v>
       </c>
@@ -20938,7 +20893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>68</v>
       </c>
@@ -21003,7 +20958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>69</v>
       </c>
@@ -21068,7 +21023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>71</v>
       </c>
@@ -21133,7 +21088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>72</v>
       </c>
@@ -21198,7 +21153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>73</v>
       </c>
@@ -21263,7 +21218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>75</v>
       </c>
@@ -21328,7 +21283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>76</v>
       </c>
@@ -21393,7 +21348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>79</v>
       </c>
@@ -21458,7 +21413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>84</v>
       </c>
@@ -21523,7 +21478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>86</v>
       </c>
@@ -21588,7 +21543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>88</v>
       </c>
@@ -21653,7 +21608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>89</v>
       </c>
@@ -21718,7 +21673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>90</v>
       </c>
@@ -21783,7 +21738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>91</v>
       </c>
@@ -21848,7 +21803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>98</v>
       </c>
@@ -21913,7 +21868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>99</v>
       </c>
@@ -21978,7 +21933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>102</v>
       </c>
@@ -22043,7 +21998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>103</v>
       </c>
@@ -22108,7 +22063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>104</v>
       </c>
@@ -22173,7 +22128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>106</v>
       </c>
@@ -22238,7 +22193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>109</v>
       </c>
@@ -22303,7 +22258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>110</v>
       </c>
@@ -22368,7 +22323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>111</v>
       </c>
@@ -22433,7 +22388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>112</v>
       </c>
@@ -22498,7 +22453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>115</v>
       </c>
@@ -22567,267 +22522,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B3F1E7-A8A1-4416-8FCB-7D2353BD83D9}">
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="F2">
-        <v>6.08E-2</v>
-      </c>
-      <c r="G2">
-        <v>9.69E-2</v>
-      </c>
-      <c r="H2">
-        <v>9.69E-2</v>
-      </c>
-      <c r="I2">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1E-10</v>
-      </c>
-      <c r="K2">
-        <v>7.88</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.89580000000000004</v>
-      </c>
-      <c r="F3">
-        <v>0.1198</v>
-      </c>
-      <c r="G3">
-        <v>0.86450000000000005</v>
-      </c>
-      <c r="H3">
-        <v>0.19689999999999999</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-      <c r="J3">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="K3">
-        <v>6.5069999999999997</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <v>6.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1.3125</v>
-      </c>
-      <c r="F4">
-        <v>0.18129999999999999</v>
-      </c>
-      <c r="G4">
-        <v>1.2578</v>
-      </c>
-      <c r="H4">
-        <v>0.25</v>
-      </c>
-      <c r="I4">
-        <v>8.59</v>
-      </c>
-      <c r="J4">
-        <v>0.6</v>
-      </c>
-      <c r="K4">
-        <v>6.5069999999999997</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>39</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1.3125</v>
-      </c>
-      <c r="F5">
-        <v>0.18129999999999999</v>
-      </c>
-      <c r="G5">
-        <v>1.2578</v>
-      </c>
-      <c r="H5">
-        <v>0.25</v>
-      </c>
-      <c r="I5">
-        <v>8.59</v>
-      </c>
-      <c r="J5">
-        <v>0.6</v>
-      </c>
-      <c r="K5">
-        <v>7.88</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>68</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1.3125</v>
-      </c>
-      <c r="F6">
-        <v>0.18129999999999999</v>
-      </c>
-      <c r="G6">
-        <v>1.2578</v>
-      </c>
-      <c r="H6">
-        <v>0.25</v>
-      </c>
-      <c r="I6">
-        <v>8.59</v>
-      </c>
-      <c r="J6">
-        <v>0.6</v>
-      </c>
-      <c r="K6">
-        <v>7.88</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>47.28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>